--- a/data/trans_dic/P28C_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 30,27</t>
+          <t>21,79; 39,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 27,77</t>
+          <t>17,47; 34,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,8</t>
+          <t>8,79; 16,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 26,15</t>
+          <t>4,94; 16,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 38,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 21,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,64</t>
+          <t>26,14; 41,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,59</t>
+          <t>13,87; 23,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 33,24</t>
+          <t>15,98; 24,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,56</t>
+          <t>10,58; 23,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 18,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 22,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 38,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,45; 26,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 19,93</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 18,05</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,11; 34,08</t>
+          <t>25,57; 39,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 20,86</t>
+          <t>14,1; 23,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 17,11</t>
+          <t>9,91; 17,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 21,63</t>
+          <t>7,15; 14,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,45; 32,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,33</t>
+          <t>23,73; 32,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,33</t>
+          <t>15,93; 23,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,6; 31,92</t>
+          <t>15,34; 21,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 20,28</t>
+          <t>18,01; 26,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,39; 18,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 33,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 21,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 17,71</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 19,34</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,12 +1105,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,47 +1120,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>18,67%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 36,44</t>
+          <t>27,09; 40,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 20,13</t>
+          <t>12,46; 20,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 19,65</t>
+          <t>12,1; 19,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 28,77</t>
+          <t>11,51; 22,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,3; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,01</t>
+          <t>29,33; 40,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,25</t>
+          <t>12,14; 18,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,4; 35,57</t>
+          <t>13,86; 20,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 17,94</t>
+          <t>16,92; 26,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 18,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 21,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30,25; 38,45</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 18,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 18,58</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 22,6</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,8; 31,71</t>
+          <t>22,23; 31,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,1</t>
+          <t>11,07; 19,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,45</t>
+          <t>11,48; 19,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,94; 33,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 19,83</t>
+          <t>26,13; 34,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 21,64</t>
+          <t>12,48; 20,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 31,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 18,91</t>
+          <t>15,1; 24,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 31,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,96; 18,58</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 20,35</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26,67; 33,02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 20,32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 15,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,09; 16,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28,43; 33,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 19,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 19,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 22,86</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>28,37; 32,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 19,12</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 17,4</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 18,46</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103076</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>122587</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90159</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40494</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>137615</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>112226</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>172514</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94121</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>240691</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>234813</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>262673</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>134616</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>73159; 133469</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>90461; 177099</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63485; 118351</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21491; 70475</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108178; 170173</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86804; 147110</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141751; 215038</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>62968; 142423</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>196187; 286165</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>188110; 299699</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>219949; 320806</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>94603; 185815</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>281980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>215738</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>208193</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108131</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>280822</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>237931</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>271781</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>238037</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>562802</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>453669</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>479973</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>346169</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>231114; 358625</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170219; 285513</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>160176; 276112</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75287; 154029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>235335; 324040</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>194614; 287570</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>229413; 318351</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193276; 285549</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>490498; 642766</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>386813; 526880</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>416880; 550961</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>286223; 411279</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>237940</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>135178</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>169396</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128798</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>267980</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>141438</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>192465</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>187287</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>505919</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>276616</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>361861</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>316085</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>192331; 285762</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>105014; 172069</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>131831; 216135</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94209; 185537</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>225582; 310512</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113868; 173816</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160198; 234452</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148038; 230916</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>447464; 568701</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>235301; 321698</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>305972; 417006</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>264344; 382703</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>385077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>125214</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>164852</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>419323</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>120873</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>182066</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>804400</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>246087</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>346918</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>320961; 454458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>94136; 162771</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>122644; 211053</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>361929; 479120</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93248; 153838</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>144275; 230931</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>715750; 895114</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>207091; 296814</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>293005; 411739</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>760.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1008073</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>598717</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>467748</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>442276</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1105740</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>612468</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>636759</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>701511</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2113813</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1211185</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1104507</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1143787</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>904961; 1120673</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>525116; 694589</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>397723; 541281</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>374112; 541638</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1012327; 1198221</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>548053; 689419</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>568774; 705734</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>628105; 799873</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1972904; 2247279</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1108827; 1328806</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>995740; 1211778</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1030265; 1268975</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
